--- a/Descargas/R15_6º Juzgado De Garantia De Santiago_Ingresos Causas Por Materia_2020-Diciembre.xlsx
+++ b/Descargas/R15_6º Juzgado De Garantia De Santiago_Ingresos Causas Por Materia_2020-Diciembre.xlsx
@@ -877,57 +877,57 @@
     <row r="68">
       <c t="inlineStr" r="A68">
         <is>
-          <t xml:space="preserve">Otros Delitos Contra La Ley Del Transito.</t>
+          <t xml:space="preserve">Otros Delit Comet. Por Emp. Públic.en El Desem De Sus Cargos</t>
         </is>
       </c>
       <c r="B68" s="65">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
       <c t="inlineStr" r="A69">
         <is>
-          <t xml:space="preserve">Otros Hechos Que No Constituyan Delito: Agrup.1008,1009,1011</t>
+          <t xml:space="preserve">Otros Delitos Contra La Ley Del Transito.</t>
         </is>
       </c>
       <c r="B69" s="65">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="70">
       <c t="inlineStr" r="A70">
         <is>
-          <t xml:space="preserve">Portar Elemento Conocidamente Destinados Cometer Delito Robo</t>
+          <t xml:space="preserve">Otros Hechos Que No Constituyan Delito: Agrup.1008,1009,1011</t>
         </is>
       </c>
       <c r="B70" s="65">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="71">
       <c t="inlineStr" r="A71">
         <is>
-          <t xml:space="preserve">Porte De Arma Cortante O Punzante (288 Bis).</t>
+          <t xml:space="preserve">Portar Elemento Conocidamente Destinados Cometer Delito Robo</t>
         </is>
       </c>
       <c r="B71" s="65">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
       <c t="inlineStr" r="A72">
         <is>
-          <t xml:space="preserve">Porte De Arma Prohibida (Art. 14 Inc. 1°)</t>
+          <t xml:space="preserve">Porte De Arma Cortante O Punzante (288 Bis).</t>
         </is>
       </c>
       <c r="B72" s="65">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="73">
       <c t="inlineStr" r="A73">
         <is>
-          <t xml:space="preserve">Porte Ilegal De Arma De Fuego, Municiones Y Otros Sujetas A.</t>
+          <t xml:space="preserve">Porte De Arma Prohibida (Art. 14 Inc. 1°)</t>
         </is>
       </c>
       <c r="B73" s="65">
@@ -937,7 +937,7 @@
     <row r="74">
       <c t="inlineStr" r="A74">
         <is>
-          <t xml:space="preserve">Posesión O Tenencia De Armas Prohibidas</t>
+          <t xml:space="preserve">Porte Ilegal De Arma De Fuego, Municiones Y Otros Sujetas A.</t>
         </is>
       </c>
       <c r="B74" s="65">
@@ -947,7 +947,7 @@
     <row r="75">
       <c t="inlineStr" r="A75">
         <is>
-          <t xml:space="preserve">Posesión Tenencia O Porte De Mun Y Sust Químicas</t>
+          <t xml:space="preserve">Posesión O Tenencia De Armas Prohibidas</t>
         </is>
       </c>
       <c r="B75" s="65">
@@ -957,17 +957,17 @@
     <row r="76">
       <c t="inlineStr" r="A76">
         <is>
-          <t xml:space="preserve">Posesión, Tenencia O Porte De Armas Sujetas A Control</t>
+          <t xml:space="preserve">Posesión Tenencia O Porte De Mun Y Sust Químicas</t>
         </is>
       </c>
       <c r="B76" s="65">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
       <c t="inlineStr" r="A77">
         <is>
-          <t xml:space="preserve">Presunta Desgracia Infantil.</t>
+          <t xml:space="preserve">Posesión, Tenencia O Porte De Armas Sujetas A Control</t>
         </is>
       </c>
       <c r="B77" s="65">
@@ -977,137 +977,137 @@
     <row r="78">
       <c t="inlineStr" r="A78">
         <is>
-          <t xml:space="preserve">Presunta Desgracia.</t>
+          <t xml:space="preserve">Presunta Desgracia Infantil.</t>
         </is>
       </c>
       <c r="B78" s="65">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79">
       <c t="inlineStr" r="A79">
         <is>
-          <t xml:space="preserve">Propagar Contagio A Sabiendas</t>
+          <t xml:space="preserve">Presunta Desgracia.</t>
         </is>
       </c>
       <c r="B79" s="65">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="80">
       <c t="inlineStr" r="A80">
         <is>
-          <t xml:space="preserve">Receptacion. Art. 456 Bis A.</t>
+          <t xml:space="preserve">Propagar Contagio A Sabiendas</t>
         </is>
       </c>
       <c r="B80" s="65">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81">
       <c t="inlineStr" r="A81">
         <is>
-          <t xml:space="preserve">Receptación De Vehículos Motorizados</t>
+          <t xml:space="preserve">Receptacion. Art. 456 Bis A.</t>
         </is>
       </c>
       <c r="B81" s="65">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82">
       <c t="inlineStr" r="A82">
         <is>
-          <t xml:space="preserve">Riña Pública (496 Nº 10 Código Penal).</t>
+          <t xml:space="preserve">Receptación De Vehículos Motorizados</t>
         </is>
       </c>
       <c r="B82" s="65">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="83">
       <c t="inlineStr" r="A83">
         <is>
-          <t xml:space="preserve">Robo Con Intimidacion.</t>
+          <t xml:space="preserve">Riña Pública (496 Nº 10 Código Penal).</t>
         </is>
       </c>
       <c r="B83" s="65">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="84">
       <c t="inlineStr" r="A84">
         <is>
-          <t xml:space="preserve">Robo Con Violencia. Art.436 Inc. 1º 433, 438, 439.</t>
+          <t xml:space="preserve">Robo Con Intimidacion.</t>
         </is>
       </c>
       <c r="B84" s="65">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="85">
       <c t="inlineStr" r="A85">
         <is>
-          <t xml:space="preserve">Robo De Vehiculo Motorizado.</t>
+          <t xml:space="preserve">Robo Con Violencia. Art.436 Inc. 1º 433, 438, 439.</t>
         </is>
       </c>
       <c r="B85" s="65">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="86">
       <c t="inlineStr" r="A86">
         <is>
-          <t xml:space="preserve">Robo En Bienes Nacionales De Uso Publico O Sitiosno Destin.</t>
+          <t xml:space="preserve">Robo De Vehiculo Motorizado.</t>
         </is>
       </c>
       <c r="B86" s="65">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
       <c t="inlineStr" r="A87">
         <is>
-          <t xml:space="preserve">Robo En Lugar Habitado O Destinado A La Habitacion.</t>
+          <t xml:space="preserve">Robo En Bienes Nacionales De Uso Publico O Sitiosno Destin.</t>
         </is>
       </c>
       <c r="B87" s="65">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="88">
       <c t="inlineStr" r="A88">
         <is>
-          <t xml:space="preserve">Robo En Lugar No Habitado.</t>
+          <t xml:space="preserve">Robo En Lugar Habitado O Destinado A La Habitacion.</t>
         </is>
       </c>
       <c r="B88" s="65">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89">
       <c t="inlineStr" r="A89">
         <is>
-          <t xml:space="preserve">Robo Por Sorpresa.</t>
+          <t xml:space="preserve">Robo En Lugar No Habitado.</t>
         </is>
       </c>
       <c r="B89" s="65">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="90">
       <c t="inlineStr" r="A90">
         <is>
-          <t xml:space="preserve">Rotura De Sellos.</t>
+          <t xml:space="preserve">Robo Por Sorpresa.</t>
         </is>
       </c>
       <c r="B90" s="65">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="91">
       <c t="inlineStr" r="A91">
         <is>
-          <t xml:space="preserve">Secuestro</t>
+          <t xml:space="preserve">Rotura De Sellos.</t>
         </is>
       </c>
       <c r="B91" s="65">
@@ -1117,7 +1117,7 @@
     <row r="92">
       <c t="inlineStr" r="A92">
         <is>
-          <t xml:space="preserve">Torturas P/Particulares Agentes D/Estado (Art.150 A,Inc. 20)</t>
+          <t xml:space="preserve">Secuestro</t>
         </is>
       </c>
       <c r="B92" s="65">
